--- a/GroceryApp/src/main/resources/ExcelReadWrite/TestDatas.xlsx
+++ b/GroceryApp/src/main/resources/ExcelReadWrite/TestDatas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIYAZ AL SULAIMAN\git\GroceryApp\GroceryApp\src\main\resources\ExcelReadWrite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC101780-8040-4ACE-8E4B-99FEDF639569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FC1FA9-22C0-47A8-B54D-CDE18B962343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +502,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>12345</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
